--- a/wcsa5seleniumproject/data/Actitimedata.xlsx
+++ b/wcsa5seleniumproject/data/Actitimedata.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="12660" windowHeight="6240"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="Invalidcreds" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L20"/>
 </workbook>
 </file>
 
@@ -386,7 +387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -433,7 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
